--- a/10/Encuesta de Operadores Financieros (EOF) 2009 a 2021 - Mensual.xlsx
+++ b/10/Encuesta de Operadores Financieros (EOF) 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Serie</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6536,6 +6539,53 @@
         <v>747.5</v>
       </c>
     </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142">
+        <v>0.38</v>
+      </c>
+      <c r="C142">
+        <v>0.45</v>
+      </c>
+      <c r="D142">
+        <v>0.45</v>
+      </c>
+      <c r="E142">
+        <v>3.7</v>
+      </c>
+      <c r="F142">
+        <v>3.35</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1.38</v>
+      </c>
+      <c r="I142">
+        <v>1.63</v>
+      </c>
+      <c r="J142">
+        <v>1.75</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>2.38</v>
+      </c>
+      <c r="M142">
+        <v>3.25</v>
+      </c>
+      <c r="N142">
+        <v>767.5</v>
+      </c>
+      <c r="O142">
+        <v>770</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
